--- a/data/pubbias_procon.xlsx
+++ b/data/pubbias_procon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harriejonkman/Desktop/WERK/Meta/Doing_Meta_notebook/Doing_Meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03F9FE1-896E-EA4B-A273-5FA9F9B824AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A626890-614F-FE47-82D4-4B62211B27A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="500" windowWidth="24780" windowHeight="15540" xr2:uid="{C82CEBA6-9425-7841-8632-A559FB476050}"/>
+    <workbookView xWindow="13100" yWindow="1600" windowWidth="31840" windowHeight="15540" xr2:uid="{C82CEBA6-9425-7841-8632-A559FB476050}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,36 +51,6 @@
     <t>Duval \&amp; Tweedie Trim-and-Fill</t>
   </si>
   <si>
-    <t xml:space="preserve"> Has been shown to outperform other methods (particularly trim-and-fill) when its assumptions are met. BREAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Similar approach as PET-PEESE, but explicitly models between-study heterogeneity. BREAK  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on a simple and intuitive model. Easy to implement and interpret. BREAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Can potentially model any kind of assumed selection process. The three-parameter selection model has shown good performance in simulation studies. BREAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Often fails to correct the effect size enough, for example when the true effect is zero. Not robust when the heterogeneity is very large; often outperformed by other methods. BREAK </t>
-  </si>
-  <si>
-    <t>Sometimes  massively over- or underestimates the effect. Weak performance for meta-analyses with few studies, low sample sizes, and high heterogeneity. BREAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Performance is less well studied than the one of other methods. May fail when the number of studies is very low (&lt;10) and heterogeneity very high. BREAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Works under the assumption of no heterogeneity, which is unlikely in practice. Requires a minimum number of significant effect sizes. Less easy to interpret and communicate. BREAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Very heavily used in practice. Can be interpreted by many researchers. BREAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Only valid when the selection model describes the publication bias process adequately. Assume that other small-study effects are not relevant. Can be difficult to interpret and requires background knowledge. BREAK</t>
-  </si>
-  <si>
     <t>Methode</t>
   </si>
   <si>
@@ -88,6 +58,36 @@
   </si>
   <si>
     <t>Nadelen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zeer veel gebruikt in de praktijk. Kan door veel onderzoekers worden geïnterpreteerd. BREAK</t>
+  </si>
+  <si>
+    <t>Gebaseerd op een eenvoudig en intuïtief model. Eenvoudig te implementeren en te interpreteren. BREAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vergelijkbare benadering als PET-PEESE, maar modelleert expliciet de heterogeniteit tussen studies.BREAK  </t>
+  </si>
+  <si>
+    <t>Het is aangetoond dat het beter presteert dan andere methoden (met name trim-and-fill) wanneer aan de aannames wordt voldaan. BREAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kan potentieel elk soort verondersteld selectieproces modelleren. Het drieparameterselectiemodel heeft goede prestaties laten zien in simulatiestudies.BREAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrigeert de effectgrootte vaak niet voldoende, bijvoorbeeld als het werkelijke effect nul is. Niet robuust als de heterogeniteit erg groot is; presteert vaak beter dan andere methoden. BREAK </t>
+  </si>
+  <si>
+    <t>Over- of onderschat het effect soms enorm. Zwakke prestaties voor meta-analyses met weinig studies, lage steekproefgroottes en hoge heterogeniteit. BREAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> De prestaties zijn minder goed onderzocht dan die van andere methoden. Kan falen als het aantal onderzoeken erg laag is (&lt;10) en de heterogeniteit erg hoog. BREAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Werkt onder de aanname van geen heterogeniteit, wat in de praktijk onwaarschijnlijk is. Vereist een minimum aantal significante effectgroottes. Minder gemakkelijk te interpreteren en te communiceren. BREAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alleen geldig als het selectiemodel het proces van publicatiebias adequaat beschrijft. Veronderstellen dat andere effecten van kleine studies niet relevant zijn. Kan moeilijk te interpreteren zijn en vereist achtergrondkennis. BREAK</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,13 +454,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -468,10 +468,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -479,10 +479,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -501,10 +501,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -512,10 +512,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
